--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-03/Sample-03.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-03/Sample-03.xlsx
@@ -7,6 +7,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$B$1</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -66,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="k1vwzwdi" xfId="1"/>
-    <cellStyle name="k1vwzwdi_Alternate" xfId="2"/>
+    <cellStyle name="s220il11" xfId="1"/>
+    <cellStyle name="s220il11_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -80,6 +83,9 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="78.8826522827148" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="3" t="s">
@@ -87,6 +93,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-03/Sample-03.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-03/Sample-03.xlsx
@@ -69,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="s220il11" xfId="1"/>
-    <cellStyle name="s220il11_Alternate" xfId="2"/>
+    <cellStyle name="m5buwpnl" xfId="1"/>
+    <cellStyle name="m5buwpnl_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-03/Sample-03.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-03/Sample-03.xlsx
@@ -69,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="m5buwpnl" xfId="1"/>
-    <cellStyle name="m5buwpnl_Alternate" xfId="2"/>
+    <cellStyle name="gjjcytif" xfId="1"/>
+    <cellStyle name="gjjcytif_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
